--- a/999999/1603/45/16/xlsx/hun.xlsx
+++ b/999999/1603/45/16/xlsx/hun.xlsx
@@ -308,7 +308,7 @@
     <t>HU004008</t>
   </si>
   <si>
-    <t>ozdi jaras</t>
+    <t>Ozdi jaras</t>
   </si>
   <si>
     <t>HU004009</t>
@@ -704,7 +704,7 @@
     <t>HU009008</t>
   </si>
   <si>
-    <t>NyNradonyi jaras</t>
+    <t>Nyiradonyi jaras</t>
   </si>
   <si>
     <t>HU009009</t>
@@ -1130,13 +1130,13 @@
     <t>HU016008</t>
   </si>
   <si>
-    <t>NyNrbatori jaras</t>
+    <t>Nyirbatori jaras</t>
   </si>
   <si>
     <t>HU016009</t>
   </si>
   <si>
-    <t>NyNregyhazi jaras</t>
+    <t>Nyiregyhazi jaras</t>
   </si>
   <si>
     <t>HU016010</t>
@@ -1505,7 +1505,7 @@
         <v>44629</v>
       </c>
       <c r="K2" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="3">
@@ -1531,7 +1531,7 @@
         <v>44629</v>
       </c>
       <c r="K3" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="4">
@@ -1557,7 +1557,7 @@
         <v>44629</v>
       </c>
       <c r="K4" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="5">
@@ -1583,7 +1583,7 @@
         <v>44629</v>
       </c>
       <c r="K5" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="6">
@@ -1609,7 +1609,7 @@
         <v>44629</v>
       </c>
       <c r="K6" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="7">
@@ -1635,7 +1635,7 @@
         <v>44629</v>
       </c>
       <c r="K7" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="8">
@@ -1661,7 +1661,7 @@
         <v>44629</v>
       </c>
       <c r="K8" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="9">
@@ -1687,7 +1687,7 @@
         <v>44629</v>
       </c>
       <c r="K9" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="10">
@@ -1713,7 +1713,7 @@
         <v>44629</v>
       </c>
       <c r="K10" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="11">
@@ -1739,7 +1739,7 @@
         <v>44629</v>
       </c>
       <c r="K11" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="12">
@@ -1765,7 +1765,7 @@
         <v>44629</v>
       </c>
       <c r="K12" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="13">
@@ -1791,7 +1791,7 @@
         <v>44629</v>
       </c>
       <c r="K13" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="14">
@@ -1817,7 +1817,7 @@
         <v>44629</v>
       </c>
       <c r="K14" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="15">
@@ -1843,7 +1843,7 @@
         <v>44629</v>
       </c>
       <c r="K15" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="16">
@@ -1869,7 +1869,7 @@
         <v>44629</v>
       </c>
       <c r="K16" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="17">
@@ -1895,7 +1895,7 @@
         <v>44629</v>
       </c>
       <c r="K17" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="18">
@@ -1921,7 +1921,7 @@
         <v>44629</v>
       </c>
       <c r="K18" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="19">
@@ -1947,7 +1947,7 @@
         <v>44629</v>
       </c>
       <c r="K19" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="20">
@@ -1973,7 +1973,7 @@
         <v>44629</v>
       </c>
       <c r="K20" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="21">
@@ -1999,7 +1999,7 @@
         <v>44629</v>
       </c>
       <c r="K21" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="22">
@@ -2025,7 +2025,7 @@
         <v>44629</v>
       </c>
       <c r="K22" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="23">
@@ -2051,7 +2051,7 @@
         <v>44629</v>
       </c>
       <c r="K23" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="24">
@@ -2077,7 +2077,7 @@
         <v>44629</v>
       </c>
       <c r="K24" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="25">
@@ -2103,7 +2103,7 @@
         <v>44629</v>
       </c>
       <c r="K25" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="26">
@@ -2129,7 +2129,7 @@
         <v>44629</v>
       </c>
       <c r="K26" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="27">
@@ -2155,7 +2155,7 @@
         <v>44629</v>
       </c>
       <c r="K27" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="28">
@@ -2181,7 +2181,7 @@
         <v>44629</v>
       </c>
       <c r="K28" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="29">
@@ -2207,7 +2207,7 @@
         <v>44629</v>
       </c>
       <c r="K29" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="30">
@@ -2233,7 +2233,7 @@
         <v>44629</v>
       </c>
       <c r="K30" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="31">
@@ -2259,7 +2259,7 @@
         <v>44629</v>
       </c>
       <c r="K31" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="32">
@@ -2285,7 +2285,7 @@
         <v>44629</v>
       </c>
       <c r="K32" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="33">
@@ -2311,7 +2311,7 @@
         <v>44629</v>
       </c>
       <c r="K33" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="34">
@@ -2337,7 +2337,7 @@
         <v>44629</v>
       </c>
       <c r="K34" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="35">
@@ -2363,7 +2363,7 @@
         <v>44629</v>
       </c>
       <c r="K35" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="36">
@@ -2389,7 +2389,7 @@
         <v>44629</v>
       </c>
       <c r="K36" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="37">
@@ -2415,7 +2415,7 @@
         <v>44629</v>
       </c>
       <c r="K37" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="38">
@@ -2441,7 +2441,7 @@
         <v>44629</v>
       </c>
       <c r="K38" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="39">
@@ -2467,7 +2467,7 @@
         <v>44629</v>
       </c>
       <c r="K39" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="40">
@@ -2493,7 +2493,7 @@
         <v>44629</v>
       </c>
       <c r="K40" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="41">
@@ -2519,7 +2519,7 @@
         <v>44629</v>
       </c>
       <c r="K41" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="42">
@@ -2545,7 +2545,7 @@
         <v>44629</v>
       </c>
       <c r="K42" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="43">
@@ -2571,7 +2571,7 @@
         <v>44629</v>
       </c>
       <c r="K43" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="44">
@@ -2597,7 +2597,7 @@
         <v>44629</v>
       </c>
       <c r="K44" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="45">
@@ -2623,7 +2623,7 @@
         <v>44629</v>
       </c>
       <c r="K45" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="46">
@@ -2649,7 +2649,7 @@
         <v>44629</v>
       </c>
       <c r="K46" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="47">
@@ -2675,7 +2675,7 @@
         <v>44629</v>
       </c>
       <c r="K47" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="48">
@@ -2701,7 +2701,7 @@
         <v>44629</v>
       </c>
       <c r="K48" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="49">
@@ -2727,7 +2727,7 @@
         <v>44629</v>
       </c>
       <c r="K49" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="50">
@@ -2753,7 +2753,7 @@
         <v>44629</v>
       </c>
       <c r="K50" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="51">
@@ -2779,7 +2779,7 @@
         <v>44629</v>
       </c>
       <c r="K51" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="52">
@@ -2805,7 +2805,7 @@
         <v>44629</v>
       </c>
       <c r="K52" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="53">
@@ -2831,7 +2831,7 @@
         <v>44629</v>
       </c>
       <c r="K53" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="54">
@@ -2857,7 +2857,7 @@
         <v>44629</v>
       </c>
       <c r="K54" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="55">
@@ -2883,7 +2883,7 @@
         <v>44629</v>
       </c>
       <c r="K55" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="56">
@@ -2909,7 +2909,7 @@
         <v>44629</v>
       </c>
       <c r="K56" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="57">
@@ -2935,7 +2935,7 @@
         <v>44629</v>
       </c>
       <c r="K57" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="58">
@@ -2961,7 +2961,7 @@
         <v>44629</v>
       </c>
       <c r="K58" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="59">
@@ -2987,7 +2987,7 @@
         <v>44629</v>
       </c>
       <c r="K59" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="60">
@@ -3013,7 +3013,7 @@
         <v>44629</v>
       </c>
       <c r="K60" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="61">
@@ -3039,7 +3039,7 @@
         <v>44629</v>
       </c>
       <c r="K61" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="62">
@@ -3065,7 +3065,7 @@
         <v>44629</v>
       </c>
       <c r="K62" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="63">
@@ -3091,7 +3091,7 @@
         <v>44629</v>
       </c>
       <c r="K63" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="64">
@@ -3117,7 +3117,7 @@
         <v>44629</v>
       </c>
       <c r="K64" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="65">
@@ -3143,7 +3143,7 @@
         <v>44629</v>
       </c>
       <c r="K65" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="66">
@@ -3169,7 +3169,7 @@
         <v>44629</v>
       </c>
       <c r="K66" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="67">
@@ -3195,7 +3195,7 @@
         <v>44629</v>
       </c>
       <c r="K67" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="68">
@@ -3221,7 +3221,7 @@
         <v>44629</v>
       </c>
       <c r="K68" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="69">
@@ -3247,7 +3247,7 @@
         <v>44629</v>
       </c>
       <c r="K69" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="70">
@@ -3273,7 +3273,7 @@
         <v>44629</v>
       </c>
       <c r="K70" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="71">
@@ -3299,7 +3299,7 @@
         <v>44629</v>
       </c>
       <c r="K71" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="72">
@@ -3325,7 +3325,7 @@
         <v>44629</v>
       </c>
       <c r="K72" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="73">
@@ -3351,7 +3351,7 @@
         <v>44629</v>
       </c>
       <c r="K73" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="74">
@@ -3377,7 +3377,7 @@
         <v>44629</v>
       </c>
       <c r="K74" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="75">
@@ -3403,7 +3403,7 @@
         <v>44629</v>
       </c>
       <c r="K75" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="76">
@@ -3429,7 +3429,7 @@
         <v>44629</v>
       </c>
       <c r="K76" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="77">
@@ -3455,7 +3455,7 @@
         <v>44629</v>
       </c>
       <c r="K77" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="78">
@@ -3481,7 +3481,7 @@
         <v>44629</v>
       </c>
       <c r="K78" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="79">
@@ -3507,7 +3507,7 @@
         <v>44629</v>
       </c>
       <c r="K79" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="80">
@@ -3533,7 +3533,7 @@
         <v>44629</v>
       </c>
       <c r="K80" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="81">
@@ -3559,7 +3559,7 @@
         <v>44629</v>
       </c>
       <c r="K81" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="82">
@@ -3585,7 +3585,7 @@
         <v>44629</v>
       </c>
       <c r="K82" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="83">
@@ -3611,7 +3611,7 @@
         <v>44629</v>
       </c>
       <c r="K83" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="84">
@@ -3637,7 +3637,7 @@
         <v>44629</v>
       </c>
       <c r="K84" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="85">
@@ -3663,7 +3663,7 @@
         <v>44629</v>
       </c>
       <c r="K85" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="86">
@@ -3689,7 +3689,7 @@
         <v>44629</v>
       </c>
       <c r="K86" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="87">
@@ -3715,7 +3715,7 @@
         <v>44629</v>
       </c>
       <c r="K87" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="88">
@@ -3741,7 +3741,7 @@
         <v>44629</v>
       </c>
       <c r="K88" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="89">
@@ -3767,7 +3767,7 @@
         <v>44629</v>
       </c>
       <c r="K89" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="90">
@@ -3793,7 +3793,7 @@
         <v>44629</v>
       </c>
       <c r="K90" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="91">
@@ -3819,7 +3819,7 @@
         <v>44629</v>
       </c>
       <c r="K91" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="92">
@@ -3845,7 +3845,7 @@
         <v>44629</v>
       </c>
       <c r="K92" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="93">
@@ -3871,7 +3871,7 @@
         <v>44629</v>
       </c>
       <c r="K93" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="94">
@@ -3897,7 +3897,7 @@
         <v>44629</v>
       </c>
       <c r="K94" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="95">
@@ -3923,7 +3923,7 @@
         <v>44629</v>
       </c>
       <c r="K95" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="96">
@@ -3949,7 +3949,7 @@
         <v>44629</v>
       </c>
       <c r="K96" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="97">
@@ -3975,7 +3975,7 @@
         <v>44629</v>
       </c>
       <c r="K97" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="98">
@@ -4001,7 +4001,7 @@
         <v>44629</v>
       </c>
       <c r="K98" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="99">
@@ -4027,7 +4027,7 @@
         <v>44629</v>
       </c>
       <c r="K99" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="100">
@@ -4053,7 +4053,7 @@
         <v>44629</v>
       </c>
       <c r="K100" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="101">
@@ -4079,7 +4079,7 @@
         <v>44629</v>
       </c>
       <c r="K101" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="102">
@@ -4105,7 +4105,7 @@
         <v>44629</v>
       </c>
       <c r="K102" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="103">
@@ -4131,7 +4131,7 @@
         <v>44629</v>
       </c>
       <c r="K103" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="104">
@@ -4157,7 +4157,7 @@
         <v>44629</v>
       </c>
       <c r="K104" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="105">
@@ -4183,7 +4183,7 @@
         <v>44629</v>
       </c>
       <c r="K105" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="106">
@@ -4209,7 +4209,7 @@
         <v>44629</v>
       </c>
       <c r="K106" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="107">
@@ -4235,7 +4235,7 @@
         <v>44629</v>
       </c>
       <c r="K107" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="108">
@@ -4261,7 +4261,7 @@
         <v>44629</v>
       </c>
       <c r="K108" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="109">
@@ -4287,7 +4287,7 @@
         <v>44629</v>
       </c>
       <c r="K109" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="110">
@@ -4313,7 +4313,7 @@
         <v>44629</v>
       </c>
       <c r="K110" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="111">
@@ -4339,7 +4339,7 @@
         <v>44629</v>
       </c>
       <c r="K111" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="112">
@@ -4365,7 +4365,7 @@
         <v>44629</v>
       </c>
       <c r="K112" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="113">
@@ -4391,7 +4391,7 @@
         <v>44629</v>
       </c>
       <c r="K113" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="114">
@@ -4417,7 +4417,7 @@
         <v>44629</v>
       </c>
       <c r="K114" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="115">
@@ -4443,7 +4443,7 @@
         <v>44629</v>
       </c>
       <c r="K115" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="116">
@@ -4469,7 +4469,7 @@
         <v>44629</v>
       </c>
       <c r="K116" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="117">
@@ -4495,7 +4495,7 @@
         <v>44629</v>
       </c>
       <c r="K117" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="118">
@@ -4521,7 +4521,7 @@
         <v>44629</v>
       </c>
       <c r="K118" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="119">
@@ -4547,7 +4547,7 @@
         <v>44629</v>
       </c>
       <c r="K119" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="120">
@@ -4573,7 +4573,7 @@
         <v>44629</v>
       </c>
       <c r="K120" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="121">
@@ -4599,7 +4599,7 @@
         <v>44629</v>
       </c>
       <c r="K121" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="122">
@@ -4625,7 +4625,7 @@
         <v>44629</v>
       </c>
       <c r="K122" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="123">
@@ -4651,7 +4651,7 @@
         <v>44629</v>
       </c>
       <c r="K123" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="124">
@@ -4677,7 +4677,7 @@
         <v>44629</v>
       </c>
       <c r="K124" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="125">
@@ -4703,7 +4703,7 @@
         <v>44629</v>
       </c>
       <c r="K125" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="126">
@@ -4729,7 +4729,7 @@
         <v>44629</v>
       </c>
       <c r="K126" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="127">
@@ -4755,7 +4755,7 @@
         <v>44629</v>
       </c>
       <c r="K127" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="128">
@@ -4781,7 +4781,7 @@
         <v>44629</v>
       </c>
       <c r="K128" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="129">
@@ -4807,7 +4807,7 @@
         <v>44629</v>
       </c>
       <c r="K129" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="130">
@@ -4833,7 +4833,7 @@
         <v>44629</v>
       </c>
       <c r="K130" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="131">
@@ -4859,7 +4859,7 @@
         <v>44629</v>
       </c>
       <c r="K131" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="132">
@@ -4885,7 +4885,7 @@
         <v>44629</v>
       </c>
       <c r="K132" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="133">
@@ -4911,7 +4911,7 @@
         <v>44629</v>
       </c>
       <c r="K133" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="134">
@@ -4937,7 +4937,7 @@
         <v>44629</v>
       </c>
       <c r="K134" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="135">
@@ -4963,7 +4963,7 @@
         <v>44629</v>
       </c>
       <c r="K135" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="136">
@@ -4989,7 +4989,7 @@
         <v>44629</v>
       </c>
       <c r="K136" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="137">
@@ -5015,7 +5015,7 @@
         <v>44629</v>
       </c>
       <c r="K137" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="138">
@@ -5041,7 +5041,7 @@
         <v>44629</v>
       </c>
       <c r="K138" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="139">
@@ -5067,7 +5067,7 @@
         <v>44629</v>
       </c>
       <c r="K139" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="140">
@@ -5093,7 +5093,7 @@
         <v>44629</v>
       </c>
       <c r="K140" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="141">
@@ -5119,7 +5119,7 @@
         <v>44629</v>
       </c>
       <c r="K141" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="142">
@@ -5145,7 +5145,7 @@
         <v>44629</v>
       </c>
       <c r="K142" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="143">
@@ -5171,7 +5171,7 @@
         <v>44629</v>
       </c>
       <c r="K143" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="144">
@@ -5197,7 +5197,7 @@
         <v>44629</v>
       </c>
       <c r="K144" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="145">
@@ -5223,7 +5223,7 @@
         <v>44629</v>
       </c>
       <c r="K145" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="146">
@@ -5249,7 +5249,7 @@
         <v>44629</v>
       </c>
       <c r="K146" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="147">
@@ -5275,7 +5275,7 @@
         <v>44629</v>
       </c>
       <c r="K147" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="148">
@@ -5301,7 +5301,7 @@
         <v>44629</v>
       </c>
       <c r="K148" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="149">
@@ -5327,7 +5327,7 @@
         <v>44629</v>
       </c>
       <c r="K149" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="150">
@@ -5353,7 +5353,7 @@
         <v>44629</v>
       </c>
       <c r="K150" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="151">
@@ -5379,7 +5379,7 @@
         <v>44629</v>
       </c>
       <c r="K151" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="152">
@@ -5405,7 +5405,7 @@
         <v>44629</v>
       </c>
       <c r="K152" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="153">
@@ -5431,7 +5431,7 @@
         <v>44629</v>
       </c>
       <c r="K153" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="154">
@@ -5457,7 +5457,7 @@
         <v>44629</v>
       </c>
       <c r="K154" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="155">
@@ -5483,7 +5483,7 @@
         <v>44629</v>
       </c>
       <c r="K155" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="156">
@@ -5509,7 +5509,7 @@
         <v>44629</v>
       </c>
       <c r="K156" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="157">
@@ -5535,7 +5535,7 @@
         <v>44629</v>
       </c>
       <c r="K157" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="158">
@@ -5561,7 +5561,7 @@
         <v>44629</v>
       </c>
       <c r="K158" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="159">
@@ -5587,7 +5587,7 @@
         <v>44629</v>
       </c>
       <c r="K159" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="160">
@@ -5613,7 +5613,7 @@
         <v>44629</v>
       </c>
       <c r="K160" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="161">
@@ -5639,7 +5639,7 @@
         <v>44629</v>
       </c>
       <c r="K161" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="162">
@@ -5665,7 +5665,7 @@
         <v>44629</v>
       </c>
       <c r="K162" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="163">
@@ -5691,7 +5691,7 @@
         <v>44629</v>
       </c>
       <c r="K163" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="164">
@@ -5717,7 +5717,7 @@
         <v>44629</v>
       </c>
       <c r="K164" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="165">
@@ -5743,7 +5743,7 @@
         <v>44629</v>
       </c>
       <c r="K165" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="166">
@@ -5769,7 +5769,7 @@
         <v>44629</v>
       </c>
       <c r="K166" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="167">
@@ -5795,7 +5795,7 @@
         <v>44629</v>
       </c>
       <c r="K167" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="168">
@@ -5821,7 +5821,7 @@
         <v>44629</v>
       </c>
       <c r="K168" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="169">
@@ -5847,7 +5847,7 @@
         <v>44629</v>
       </c>
       <c r="K169" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="170">
@@ -5873,7 +5873,7 @@
         <v>44629</v>
       </c>
       <c r="K170" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="171">
@@ -5899,7 +5899,7 @@
         <v>44629</v>
       </c>
       <c r="K171" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="172">
@@ -5925,7 +5925,7 @@
         <v>44629</v>
       </c>
       <c r="K172" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="173">
@@ -5951,7 +5951,7 @@
         <v>44629</v>
       </c>
       <c r="K173" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="174">
@@ -5977,7 +5977,7 @@
         <v>44629</v>
       </c>
       <c r="K174" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="175">
@@ -6003,7 +6003,7 @@
         <v>44629</v>
       </c>
       <c r="K175" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="176">
@@ -6029,7 +6029,7 @@
         <v>44629</v>
       </c>
       <c r="K176" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="177">
@@ -6055,7 +6055,7 @@
         <v>44629</v>
       </c>
       <c r="K177" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="178">
@@ -6081,7 +6081,7 @@
         <v>44629</v>
       </c>
       <c r="K178" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="179">
@@ -6107,7 +6107,7 @@
         <v>44629</v>
       </c>
       <c r="K179" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="180">
@@ -6133,7 +6133,7 @@
         <v>44629</v>
       </c>
       <c r="K180" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="181">
@@ -6159,7 +6159,7 @@
         <v>44629</v>
       </c>
       <c r="K181" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="182">
@@ -6185,7 +6185,7 @@
         <v>44629</v>
       </c>
       <c r="K182" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="183">
@@ -6211,7 +6211,7 @@
         <v>44629</v>
       </c>
       <c r="K183" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="184">
@@ -6237,7 +6237,7 @@
         <v>44629</v>
       </c>
       <c r="K184" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="185">
@@ -6263,7 +6263,7 @@
         <v>44629</v>
       </c>
       <c r="K185" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="186">
@@ -6289,7 +6289,7 @@
         <v>44629</v>
       </c>
       <c r="K186" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="187">
@@ -6315,7 +6315,7 @@
         <v>44629</v>
       </c>
       <c r="K187" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="188">
@@ -6341,7 +6341,7 @@
         <v>44629</v>
       </c>
       <c r="K188" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="189">
@@ -6367,7 +6367,7 @@
         <v>44629</v>
       </c>
       <c r="K189" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="190">
@@ -6393,7 +6393,7 @@
         <v>44629</v>
       </c>
       <c r="K190" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="191">
@@ -6419,7 +6419,7 @@
         <v>44629</v>
       </c>
       <c r="K191" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="192">
@@ -6445,7 +6445,7 @@
         <v>44629</v>
       </c>
       <c r="K192" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="193">
@@ -6471,7 +6471,7 @@
         <v>44629</v>
       </c>
       <c r="K193" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="194">
@@ -6497,7 +6497,7 @@
         <v>44629</v>
       </c>
       <c r="K194" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="195">
@@ -6523,7 +6523,7 @@
         <v>44629</v>
       </c>
       <c r="K195" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="196">
@@ -6549,7 +6549,7 @@
         <v>44629</v>
       </c>
       <c r="K196" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="197">
@@ -6575,7 +6575,7 @@
         <v>44629</v>
       </c>
       <c r="K197" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="198">
@@ -6601,7 +6601,7 @@
         <v>44629</v>
       </c>
       <c r="K198" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
   </sheetData>
@@ -6672,7 +6672,7 @@
         <v>44629</v>
       </c>
       <c r="I2" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="3">
@@ -6692,7 +6692,7 @@
         <v>44629</v>
       </c>
       <c r="I3" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="4">
@@ -6712,7 +6712,7 @@
         <v>44629</v>
       </c>
       <c r="I4" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="5">
@@ -6732,7 +6732,7 @@
         <v>44629</v>
       </c>
       <c r="I5" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="6">
@@ -6752,7 +6752,7 @@
         <v>44629</v>
       </c>
       <c r="I6" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="7">
@@ -6772,7 +6772,7 @@
         <v>44629</v>
       </c>
       <c r="I7" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="8">
@@ -6792,7 +6792,7 @@
         <v>44629</v>
       </c>
       <c r="I8" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="9">
@@ -6812,7 +6812,7 @@
         <v>44629</v>
       </c>
       <c r="I9" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="10">
@@ -6832,7 +6832,7 @@
         <v>44629</v>
       </c>
       <c r="I10" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="11">
@@ -6852,7 +6852,7 @@
         <v>44629</v>
       </c>
       <c r="I11" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="12">
@@ -6872,7 +6872,7 @@
         <v>44629</v>
       </c>
       <c r="I12" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="13">
@@ -6892,7 +6892,7 @@
         <v>44629</v>
       </c>
       <c r="I13" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="14">
@@ -6912,7 +6912,7 @@
         <v>44629</v>
       </c>
       <c r="I14" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="15">
@@ -6932,7 +6932,7 @@
         <v>44629</v>
       </c>
       <c r="I15" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="16">
@@ -6952,7 +6952,7 @@
         <v>44629</v>
       </c>
       <c r="I16" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="17">
@@ -6972,7 +6972,7 @@
         <v>44629</v>
       </c>
       <c r="I17" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="18">
@@ -6992,7 +6992,7 @@
         <v>44629</v>
       </c>
       <c r="I18" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="19">
@@ -7012,7 +7012,7 @@
         <v>44629</v>
       </c>
       <c r="I19" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="20">
@@ -7032,7 +7032,7 @@
         <v>44629</v>
       </c>
       <c r="I20" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
     <row r="21">
@@ -7052,7 +7052,7 @@
         <v>44629</v>
       </c>
       <c r="I21" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
   </sheetData>
@@ -7109,7 +7109,7 @@
         <v>44629</v>
       </c>
       <c r="G2" s="1">
-        <v>44642</v>
+        <v>44764</v>
       </c>
     </row>
   </sheetData>
